--- a/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M30/Master_Student_Progress_Worksheet_13M30_Phase1.xlsx
+++ b/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M30/Master_Student_Progress_Worksheet_13M30_Phase1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\github\CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\Files\13M30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD1235-24A6-46A1-999A-CE6E93417509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE3D67-3A4E-4F90-8962-2627C555F5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Student Name </t>
   </si>
@@ -80,6 +80,63 @@
       <t>.  Change N to G when a SM successfully completes the task.</t>
     </r>
   </si>
+  <si>
+    <t>061-GS63IP/ Conduct In-Process and Orientation</t>
+  </si>
+  <si>
+    <t>805P-ACFT0001/  Conduct the Army Combat Fitness Test</t>
+  </si>
+  <si>
+    <t>061-GS63PT/ Conduct Height and weight / Physical Readiness Training</t>
+  </si>
+  <si>
+    <t>400-A200 / Course Overview</t>
+  </si>
+  <si>
+    <t>400-A201 / Army Discipline and Standards</t>
+  </si>
+  <si>
+    <t>400-A202 / The Army Leader</t>
+  </si>
+  <si>
+    <t>400-A203 / Research and Case Studies</t>
+  </si>
+  <si>
+    <t>400-A204 / Build Trust in Teams</t>
+  </si>
+  <si>
+    <t>400-A205 / Mission Orders and the Military Decision-making Process</t>
+  </si>
+  <si>
+    <t>400-A206 / Persuasive Essay</t>
+  </si>
+  <si>
+    <t>400-A207 / Coaching, Counseling, and Mentorship</t>
+  </si>
+  <si>
+    <t>400-A208 / Military Briefing</t>
+  </si>
+  <si>
+    <t>400-A209 / Physical Fitness Program</t>
+  </si>
+  <si>
+    <t>400-A210 / Training Management</t>
+  </si>
+  <si>
+    <t>400-A211 / The Army’s Maintenance Program</t>
+  </si>
+  <si>
+    <t>400-A212 / Contemporary Issues</t>
+  </si>
+  <si>
+    <t>061-GS63LR/ Operate AN/PRC-150© Long Range Communication (HARRIS)</t>
+  </si>
+  <si>
+    <t>061-GS63CE/ End of Course Evaluation</t>
+  </si>
+  <si>
+    <t>061-GS63OP/ Conduct Out-Process</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -216,17 +273,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -251,15 +297,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -282,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -295,15 +332,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,120 +710,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A3" sqref="A3:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="31" width="4.5703125" customWidth="1"/>
+    <col min="2" max="20" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
+    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -797,7 +837,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -811,19 +851,8 @@
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -832,7 +861,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -846,17 +875,6 @@
       <c r="R5" s="8"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
